--- a/src/test/resources/Documents/4143/Base/JobMaterial.xlsx
+++ b/src/test/resources/Documents/4143/Base/JobMaterial.xlsx
@@ -47,94 +47,94 @@
     <t>Ink / Varnish</t>
   </si>
   <si>
+    <t>Folded Sheet  4p</t>
+  </si>
+  <si>
+    <t>Sheet-fed Press F 4x0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>M594GK - Black (General)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t>M594GN - 4/C Process (General)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magenta - Sheet-fed Offset - </t>
+  </si>
+  <si>
+    <t>Folded Sheet 1  4p</t>
+  </si>
+  <si>
     <t>Folded Sheet 2  4p</t>
   </si>
   <si>
-    <t>Sheet-fed Press F 4x0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow - Sheet-fed Offset - </t>
-  </si>
-  <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>M594GN - 4/C Process (General)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magenta - Sheet-fed Offset - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyan - Sheet-fed Offset - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black - Sheet-fed Offset - </t>
-  </si>
-  <si>
-    <t>M594GK - Black (General)</t>
-  </si>
-  <si>
-    <t>Folded Sheet  4p</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>Folded Sheet 1  4p</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
+    <t>Plate - Folded Sheet 2  4p</t>
+  </si>
+  <si>
+    <t>OKTP</t>
+  </si>
+  <si>
+    <t>40" Plates (each, iQuote)</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>Each</t>
+  </si>
+  <si>
+    <t>M295PD40 - Plate (Digital) 40"</t>
+  </si>
+  <si>
+    <t>Plate - Folded Sheet  4p</t>
+  </si>
+  <si>
     <t>Plate - Folded Sheet 1  4p</t>
   </si>
   <si>
-    <t>OKTP</t>
-  </si>
-  <si>
-    <t>40" Plates (each, iQuote)</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>M295PD40 - Plate (Digital) 40"</t>
-  </si>
-  <si>
-    <t>Plate - Folded Sheet 2  4p</t>
-  </si>
-  <si>
-    <t>Plate - Folded Sheet  4p</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
     <t>Satin Text, Grade 3 -  80# 19 x 25" 500 ppi</t>
   </si>
   <si>
+    <t>1,001.00</t>
+  </si>
+  <si>
+    <t>Per M (prod)</t>
+  </si>
+  <si>
+    <t>JS20103021-M - Sheetfed Paper Coated #3 Matte/Dull Offset (M)</t>
+  </si>
+  <si>
+    <t>1,106.00</t>
+  </si>
+  <si>
     <t>1,213.00</t>
-  </si>
-  <si>
-    <t>Per M (prod)</t>
-  </si>
-  <si>
-    <t>JS20103021-M - Sheetfed Paper Coated #3 Matte/Dull Offset (M)</t>
-  </si>
-  <si>
-    <t>1,001.00</t>
-  </si>
-  <si>
-    <t>1,106.00</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="20">
         <v>16</v>
@@ -1378,7 +1378,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="26">
         <v>14</v>
@@ -1390,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s" s="29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="30">
         <v>16</v>
@@ -1410,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="36">
         <v>14</v>
@@ -1422,7 +1422,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s" s="39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="40">
         <v>16</v>
@@ -1445,7 +1445,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s" s="46">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="47">
         <v>15</v>
@@ -1454,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="49">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="50">
         <v>16</v>
@@ -1474,10 +1474,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s" s="55">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s" s="56">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="57">
         <v>15</v>
@@ -1486,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s" s="59">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="60">
         <v>16</v>
@@ -1506,10 +1506,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s" s="65">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="66">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="67">
         <v>15</v>
@@ -1518,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="H8" t="s" s="69">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="70">
         <v>16</v>
@@ -1538,10 +1538,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s" s="75">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s" s="76">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="77">
         <v>15</v>
@@ -1550,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s" s="79">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="80">
         <v>16</v>
@@ -1564,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s" s="83">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="84">
         <v>12</v>
@@ -1573,7 +1573,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s" s="86">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s" s="87">
         <v>15</v>
@@ -1582,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s" s="89">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="90">
         <v>16</v>
@@ -1596,16 +1596,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s" s="93">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="94">
         <v>12</v>
       </c>
       <c r="D11" t="s" s="95">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s" s="96">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s" s="97">
         <v>15</v>
@@ -1614,7 +1614,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s" s="99">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="100">
         <v>16</v>
@@ -1628,16 +1628,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="103">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s" s="104">
         <v>12</v>
       </c>
       <c r="D12" t="s" s="105">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s" s="106">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s" s="107">
         <v>15</v>
@@ -1646,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s" s="109">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="110">
         <v>16</v>
@@ -1660,16 +1660,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s" s="113">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="114">
         <v>12</v>
       </c>
       <c r="D13" t="s" s="115">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s" s="116">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s" s="117">
         <v>15</v>
@@ -1678,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s" s="119">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="120">
         <v>16</v>
@@ -1852,7 +1852,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s" s="173">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s" s="174">
         <v>12</v>
